--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology_HK.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology_HK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{9DA27FD6-9439-4691-A891-0DCAAE6C311A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{67981874-DE7F-458A-951F-097ACB494FB8}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{9DA27FD6-9439-4691-A891-0DCAAE6C311A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC3CA88C-E337-488F-86DC-45B405EF0F79}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4274,8 +4274,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,8 +5390,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22932,8 +22932,8 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55225,8 +55225,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68410,7 +68410,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="16" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="16"/>
+    <col min="2" max="2" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
@@ -69513,6 +69514,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -69746,25 +69765,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC172D0-2C1E-40B7-AE9F-1B7937C082BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69782,30 +69809,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EC0751-9F58-4B82-B534-81EAA9B41494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{591ECC80-2B38-4235-9218-5664688DA1BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>